--- a/Testing_Fitness_7_25.xlsx
+++ b/Testing_Fitness_7_25.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21200" windowHeight="17740" tabRatio="500"/>
+    <workbookView xWindow="3540" yWindow="2160" windowWidth="21300" windowHeight="19860" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Single Generation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
   <si>
     <t>Parameters</t>
   </si>
@@ -78,14 +78,24 @@
   </si>
   <si>
     <t>RUN 3</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Test 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="174" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -128,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -137,6 +147,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -146,6 +165,114 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -155,20 +282,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -176,6 +303,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,6 +609,7 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -683,7 +829,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8"/>
       <c r="D18" s="1" t="s">
@@ -794,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="K22">
-        <v>-0.91179718114668895</v>
+        <v>0.73936435081919505</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -814,8 +960,7 @@
         <v>3</v>
       </c>
       <c r="K23">
-        <f>-0.0003247526467</f>
-        <v>-3.2475264670000001E-4</v>
+        <v>-0.91179718114668895</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -834,17 +979,624 @@
       <c r="J24">
         <v>4</v>
       </c>
-      <c r="K24">
-        <f>0.00287947346770769</f>
+      <c r="K24" s="9">
+        <v>-2.05676676264825E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <f>-0.739364350819185</f>
+        <v>-0.73936435081918495</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>4.3257052544962198E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2.88055559765301E-2</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>-0.91179718114668895</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9">
+        <v>6.3012830128385502E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0.91179718114668895</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>3.0429322998982399E-2</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30" s="9">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>0.123005477494596</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>-0.10512243174777899</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0.85342830544037296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>-0.91179718114668895</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0.21756262313529801</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0.19031587607431899</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0.21756262313529801</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>3.88620667258294E-3</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>-0.16549394877562101</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38" s="9">
+        <v>-0.79593626188023903</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <f>0.123005477494596</f>
+        <v>0.123005477494596</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>0.73936435081918495</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40" s="9">
+        <v>-4.3300352897859998E-5</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C45" s="12">
+        <v>4</v>
+      </c>
+      <c r="D45" s="11">
+        <v>-1.0825000000000001E-5</v>
+      </c>
+      <c r="E45" s="11">
+        <v>-0.21756263135000001</v>
+      </c>
+      <c r="F45" s="15">
+        <v>-6.8414557578689601E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C46" s="13"/>
+      <c r="D46" s="16">
+        <v>0.21756262000000001</v>
+      </c>
+      <c r="E46" s="16">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+      <c r="F46" s="17">
+        <v>0.39304812834210001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C47" s="13"/>
+      <c r="D47" s="16">
+        <v>6.3012838500000001E-2</v>
+      </c>
+      <c r="E47" s="16">
+        <v>-0.68421052631553603</v>
+      </c>
+      <c r="F47" s="17">
+        <v>-0.91179718114668895</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C48" s="13"/>
+      <c r="D48" s="16">
+        <v>0.68421052630000001</v>
+      </c>
+      <c r="E48" s="16">
+        <v>-1.46894472059904E-2</v>
+      </c>
+      <c r="F48" s="17">
+        <v>-3.2475264670000001E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="14"/>
+      <c r="D49" s="10">
+        <v>0.63052891381014198</v>
+      </c>
+      <c r="E49" s="10">
+        <v>8.5342830544037296E-2</v>
+      </c>
+      <c r="F49" s="18">
         <v>2.8794734677076899E-3</v>
       </c>
     </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C50" s="12">
+        <v>5</v>
+      </c>
+      <c r="D50" s="11">
+        <v>8.9208999999999997E-2</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-1.0825088220000001E-5</v>
+      </c>
+      <c r="F50" s="15">
+        <v>2.88055597653014E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C51" s="13"/>
+      <c r="D51" s="16">
+        <v>0.48125094000000002</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0.57874169174400003</v>
+      </c>
+      <c r="F51" s="17">
+        <v>7.5256013336480798E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="13"/>
+      <c r="D52" s="16">
+        <v>0.853428305</v>
+      </c>
+      <c r="E52" s="16">
+        <v>6.8414557578618902E-3</v>
+      </c>
+      <c r="F52" s="17">
+        <v>0.73936435081919505</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C53" s="13"/>
+      <c r="D53" s="16">
+        <v>0.39304800000000001</v>
+      </c>
+      <c r="E53" s="16">
+        <v>-0.481250947195</v>
+      </c>
+      <c r="F53" s="17">
+        <v>-0.91179718114668895</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C54" s="14"/>
+      <c r="D54" s="10">
+        <v>-0.68421052599999999</v>
+      </c>
+      <c r="E54" s="10">
+        <v>3.5462989023347401E-2</v>
+      </c>
+      <c r="F54" s="18">
+        <v>-2.05676676264825E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="12">
+        <v>8</v>
+      </c>
+      <c r="D55" s="19">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+      <c r="E55" s="11">
+        <v>-0.73936435081918495</v>
+      </c>
+      <c r="F55" s="15">
+        <v>4.3257052544962198E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="13"/>
+      <c r="D56" s="20">
+        <v>2.88055559765301E-2</v>
+      </c>
+      <c r="E56" s="16">
+        <v>-0.91179718114668895</v>
+      </c>
+      <c r="F56" s="17">
+        <v>6.3012830128385502E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="13"/>
+      <c r="D57" s="20">
+        <v>0.91179718114668895</v>
+      </c>
+      <c r="E57" s="16">
+        <v>3.0429322998982399E-2</v>
+      </c>
+      <c r="F57" s="17">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="13"/>
+      <c r="D58" s="20">
+        <v>0.123005477494596</v>
+      </c>
+      <c r="E58" s="16">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+      <c r="F58" s="17">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C59" s="14"/>
+      <c r="D59" s="21">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+      <c r="E59" s="10">
+        <v>-0.10512243174777899</v>
+      </c>
+      <c r="F59" s="18">
+        <v>0.85342830544037296</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C60" s="12">
+        <v>10</v>
+      </c>
+      <c r="D60" s="11">
+        <v>-0.91179718114668895</v>
+      </c>
+      <c r="E60" s="11">
+        <v>0.21756262313529801</v>
+      </c>
+      <c r="F60" s="15">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="13"/>
+      <c r="D61" s="16">
+        <v>0.19031587607431899</v>
+      </c>
+      <c r="E61" s="16">
+        <v>0.21756262313529801</v>
+      </c>
+      <c r="F61" s="17">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C62" s="13"/>
+      <c r="D62" s="16">
+        <v>3.88620667258294E-3</v>
+      </c>
+      <c r="E62" s="16">
+        <v>-0.16549394877562101</v>
+      </c>
+      <c r="F62" s="17">
+        <v>-0.79593626188023903</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C63" s="13"/>
+      <c r="D63" s="16">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+      <c r="E63" s="16">
+        <f>0.123005477494596</f>
+        <v>0.123005477494596</v>
+      </c>
+      <c r="F63" s="17">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="14"/>
+      <c r="D64" s="10">
+        <v>0.73936435081918495</v>
+      </c>
+      <c r="E64" s="10">
+        <v>-4.3300352897859998E-5</v>
+      </c>
+      <c r="F64" s="18">
+        <v>-1.0825088224464999E-5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C64"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C45:C49"/>
   </mergeCells>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:K32 K12:K16 H12:H16 E12:E16 K20:K24 E20:E24 H20:H24 H28:H32 E28:E32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="5" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:F64">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>